--- a/PersonalWebsite.xlsx
+++ b/PersonalWebsite.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16520" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$17</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Project</t>
   </si>
@@ -75,9 +75,6 @@
     <t>AR</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>Storytelling</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Digital History</t>
   </si>
   <si>
-    <t>Ecology</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -124,6 +118,21 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Russian Trolls</t>
+  </si>
+  <si>
+    <t>Educ</t>
+  </si>
+  <si>
+    <t>Eco</t>
+  </si>
+  <si>
+    <t>12?</t>
   </si>
 </sst>
 </file>
@@ -163,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +228,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -221,6 +236,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -570,19 +587,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="2.5" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.5" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,294 +624,320 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7">
-        <v>6</v>
-      </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
+    <row r="10" spans="1:17">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
+      <c r="G17" t="s">
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N17">
-    <sortState ref="A2:N17">
-      <sortCondition ref="N1:N17"/>
+  <autoFilter ref="A1:O17">
+    <sortState ref="A2:O17">
+      <sortCondition ref="O1:O17"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
